--- a/Texts/Город Сокровищ/Все персонажи/Камерапт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Камерапт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -64,6 +64,84 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ äôíàý, œóï éè-èà üóïãï, îàš\nìéäåñ îå ïœåîû ôâåñåî â òåáå...[K] Îï ÿ\nðïîÿóéÿ îå éíåý œóï îàí ò üóéí äåìàóû.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1305.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard that the thief stealing\nthe Time Gears is named [CS:N]Grovyle[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmm... Can\'t say that I\'ve heard\nof him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я узнал, что имя вора, крадущего\nШестерни Времени, это [CS:N]Гровайл[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хмм... Не могу сказать, что\nслышал о нём.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôèîàì, œóï éíÿ âïñà, ëñàäôþåãï\nŠåòóåñîé Âñåíåîé, üóï [CS:N]Ãñïâàêì[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öíí... Îå íïãô òëàèàóû, œóï\nòìúšàì ï îæí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P02A/um1309.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard even the great\n[CS:N]Dusknoir[CR] himself is tracking [CS:N]Grovyle[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But so far, the thief has eluded\nthem all. He must be good.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1409.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, что даже сам великий\n[CS:N]Даскнуар[CR] выслеживает [CS:N]Гровайла[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но пока что, похитителю удаётся\nего избегать. Он довольно неплох.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, œóï äàçå òàí âåìéëéê\n[CS:N]Äàòëîôàñ[CR] âúòìåçéâàåó [CS:N]Ãñïâàêìà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ðïëà œóï, ðïöéóéóåìý ôäàæóòÿ\nåãï éèáåãàóû. Ïî äïâïìûîï îåðìïö.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1506.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1608.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Grovyle[CR] is a Grass type, I hear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Though he\'s said to be very\nskilled...[K]our attacks are mostly fire based!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So I think we\'d be more than a\nmatch for him. At least as far as our types\nare concerned!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышал, что [CS:N]Гровайл[CR] имеет\nТравяной тип.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хоть поговаривают, что он\nумелый...[K] Но наши приёмы в основном все\nОгненные!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, я думаю, что мы для\nнего достойные противники. По крайней\nмере, мы подходим по типу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàì, œóï [CS:N]Ãñïâàêì[CR] éíååó\nÓñàâÿîïê óéð.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóû ðïãïâàñéâàýó, œóï ïî\nôíåìúê...[K] Îï îàšé ðñéæíú â ïòîïâîïí âòå\nÏãîåîîúå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, ÿ äôíàý, œóï íú äìÿ\nîåãï äïòóïêîúå ðñïóéâîéëé. Ðï ëñàêîåê\níåñå, íú ðïäöïäéí ðï óéðô!</t>
   </si>
 </sst>
 </file>
@@ -94,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,11 +204,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -145,6 +232,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,17 +585,131 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
         <v>176</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>148</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6">
+        <v>151</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <v>126</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6">
+        <v>129</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4">
+        <v>101</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>107</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Камерапт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Камерапт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïüóïíô, ÿ äôíàý, œóï íú äìÿ\nîåãï äïòóïêîúå ðñïóéâîéëé. Ðï ëñàêîåê\níåñå, íú ðïäöïäéí ðï óéðô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your team won\'t fail! Go for it!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2407.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ваша команда нас не подведёт!\nТолько вперёд!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàšà ëïíàîäà îàò îå ðïäâåäæó!\nÓïìûëï âðåñæä!</t>
   </si>
 </sst>
 </file>
@@ -520,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -699,18 +711,43 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
         <v>107</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4">
+        <v>82</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Texts/Город Сокровищ/Все персонажи/Камерапт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Камерапт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -154,6 +154,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Âàšà ëïíàîäà îàò îå ðïäâåäæó!\nÓïìûëï âðåñæä!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2507.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You did it! That\'s wonderful!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you so much!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У вас всё получилось!\nКак здорово!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам огромное!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô âàò âòæ ðïìôœéìïòû!\nËàë èäïñïâï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí ïãñïíîïå!</t>
   </si>
 </sst>
 </file>
@@ -532,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,13 +766,46 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>63</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Камерапт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Камерапт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Òðàòéáï âàí ïãñïíîïå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0408.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There are exploration teams\neven more famous than Team [CS:X]Charm[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The most famous would have to\nbe Team [CS:X]Raider[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Есть более известная команда\nисследователей, даже больше чем Команда\n[CS:X]Шарм[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Самой известной командой\nявляется Команда [CS:X]Рейдер[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòóû áïìåå éèâåòóîàÿ ëïíàîäà\néòòìåäïâàóåìåê, äàçå áïìûšå œåí Ëïíàîäà\n[CS:X]Šàñí[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òàíïê éèâåòóîïê ëïíàîäïê\nÿâìÿåóòÿ Ëïíàîäà [CS:X]Ñåêäåñ[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2004.ssb</t>
   </si>
 </sst>
 </file>
@@ -556,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,17 +817,52 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
         <v>63</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="4">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Камерапт.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Камерапт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/us2004.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you, Team [team:]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2208.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам, Команда\n[team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí, Ëïíàîäà\n[team:]!</t>
   </si>
 </sst>
 </file>
@@ -580,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,20 +861,37 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="4">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
